--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_22-05.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_22-05.xlsx
@@ -71,6 +71,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>AMRIZOLE 500MG VIAL 100 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
     <t>ARTHROFAST 150MG 14 M.R. TABLETS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -251,6 +254,9 @@
     <t>EMPIR G CAPS</t>
   </si>
   <si>
+    <t>EPICEPHIN 2GM I.V. VIAL</t>
+  </si>
+  <si>
     <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -413,6 +419,9 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
+    <t>ROTAPYRETIC 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
     <t>SALMETOCORT 50+500 INH TAB</t>
   </si>
   <si>
@@ -500,18 +509,24 @@
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
-    <t>39:0</t>
+    <t>38:0</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>حلق</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -551,19 +566,22 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>-5:0</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>لزق حبوب</t>
   </si>
   <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>-1:0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>مس جانتينا سبراي</t>
@@ -1327,11 +1345,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1353,11 +1371,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1379,11 +1397,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1399,17 +1417,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1425,17 +1443,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1443,7 +1461,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1451,17 +1469,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1477,17 +1495,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1503,17 +1521,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>-28</v>
+        <v>32</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1521,7 +1539,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1529,13 +1547,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>69</v>
+        <v>-28</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1555,13 +1573,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1581,17 +1599,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1607,17 +1625,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1633,17 +1651,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1659,17 +1677,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1677,7 +1695,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1685,17 +1703,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1703,7 +1721,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1711,17 +1729,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1729,7 +1747,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1737,13 +1755,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1755,7 +1773,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1763,17 +1781,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1789,17 +1807,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1815,17 +1833,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1841,17 +1859,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1859,7 +1877,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1867,17 +1885,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1893,17 +1911,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1911,7 +1929,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1919,17 +1937,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1937,7 +1955,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1945,17 +1963,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1963,7 +1981,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1971,13 +1989,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1997,17 +2015,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2023,17 +2041,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -2041,7 +2059,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2049,13 +2067,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -2075,17 +2093,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2093,7 +2111,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2101,17 +2119,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2127,17 +2145,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2153,13 +2171,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2179,17 +2197,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>122.5</v>
+        <v>27</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2205,17 +2223,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>194</v>
+        <v>122.5</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2231,17 +2249,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2257,17 +2275,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2275,7 +2293,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2283,17 +2301,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2309,17 +2327,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2335,13 +2353,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2361,13 +2379,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2387,17 +2405,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2413,17 +2431,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2439,17 +2457,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2465,17 +2483,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2491,17 +2509,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2517,17 +2535,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2543,13 +2561,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2569,17 +2587,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>30.670000000000002</v>
+        <v>90</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2595,13 +2613,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2621,17 +2639,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>105</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2647,17 +2665,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2673,17 +2691,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2699,17 +2717,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2725,17 +2743,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2751,13 +2769,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>-290</v>
+        <v>39</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2783,11 +2801,11 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2803,13 +2821,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>67</v>
+        <v>-290</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2829,13 +2847,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2855,13 +2873,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2881,13 +2899,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2907,17 +2925,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>27.329999999999998</v>
+        <v>55</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2925,7 +2943,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2933,17 +2951,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>274</v>
+        <v>145</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2951,7 +2969,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2959,17 +2977,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>31</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2985,17 +3003,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -3011,13 +3029,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -3037,17 +3055,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>-57</v>
+        <v>70</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3063,13 +3081,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -3089,17 +3107,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>0</v>
+        <v>-57</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3115,13 +3133,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -3141,17 +3159,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3159,7 +3177,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3167,13 +3185,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3185,7 +3203,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3193,13 +3211,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>76.439999999999998</v>
+        <v>16</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3219,17 +3237,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3245,17 +3263,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>16</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3263,7 +3281,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3271,17 +3289,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3289,7 +3307,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3297,17 +3315,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3323,17 +3341,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3349,17 +3367,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3375,17 +3393,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3401,13 +3419,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3427,17 +3445,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3453,17 +3471,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3485,11 +3503,11 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3511,11 +3529,11 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3531,17 +3549,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3557,17 +3575,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>75.200000000000003</v>
+        <v>46</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3575,7 +3593,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3583,13 +3601,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>6.5999999999999996</v>
+        <v>67</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3601,7 +3619,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3609,17 +3627,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>28</v>
+        <v>75.200000000000003</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3627,7 +3645,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3635,13 +3653,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>7.0499999999999998</v>
+        <v>6.5999999999999996</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3653,7 +3671,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3661,17 +3679,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>47.670000000000002</v>
+        <v>28</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3679,7 +3697,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3687,17 +3705,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>89.099999999999994</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3705,7 +3723,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3713,17 +3731,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3731,7 +3749,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3739,17 +3757,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>-185</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3765,13 +3783,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>71</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3791,17 +3809,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3817,13 +3835,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>39</v>
+        <v>-185</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
@@ -3843,17 +3861,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3869,17 +3887,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3901,7 +3919,7 @@
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3921,17 +3939,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>23</v>
+        <v>45.5</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3947,17 +3965,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3979,11 +3997,11 @@
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3999,17 +4017,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4025,17 +4043,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4051,13 +4069,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -4077,17 +4095,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4103,13 +4121,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4129,17 +4147,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4155,17 +4173,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4181,17 +4199,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4199,7 +4217,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4207,17 +4225,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4225,7 +4243,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4233,17 +4251,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4251,7 +4269,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4259,17 +4277,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4285,17 +4303,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4311,13 +4329,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
@@ -4337,13 +4355,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
@@ -4355,7 +4373,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4363,13 +4381,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4381,7 +4399,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4389,13 +4407,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
@@ -4407,7 +4425,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4415,17 +4433,17 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4433,7 +4451,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4441,17 +4459,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
-        <v>172</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4459,7 +4477,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4467,13 +4485,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
@@ -4485,7 +4503,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4493,13 +4511,13 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
@@ -4511,7 +4529,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4519,17 +4537,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
-        <v>9</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4537,7 +4555,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4545,17 +4563,17 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4571,13 +4589,13 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>68.599999999999994</v>
+        <v>190</v>
       </c>
       <c r="M135" s="9"/>
       <c t="s" r="N135" s="7">
@@ -4597,17 +4615,17 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="M136" s="9"/>
       <c t="s" r="N136" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -4623,13 +4641,13 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>44.549999999999997</v>
+        <v>85</v>
       </c>
       <c r="M137" s="9"/>
       <c t="s" r="N137" s="7">
@@ -4655,7 +4673,7 @@
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M138" s="9"/>
       <c t="s" r="N138" s="7">
@@ -4675,13 +4693,13 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>24</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M139" s="9"/>
       <c t="s" r="N139" s="7">
@@ -4693,7 +4711,7 @@
         <v>137</v>
       </c>
       <c t="s" r="B140" s="7">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4701,17 +4719,17 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="M140" s="9"/>
       <c t="s" r="N140" s="7">
-        <v>9</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" ht="24.75" customHeight="1">
@@ -4719,7 +4737,7 @@
         <v>138</v>
       </c>
       <c t="s" r="B141" s="7">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4727,13 +4745,13 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>30</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M141" s="9"/>
       <c t="s" r="N141" s="7">
@@ -4745,7 +4763,7 @@
         <v>139</v>
       </c>
       <c t="s" r="B142" s="7">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4753,51 +4771,155 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M142" s="9"/>
       <c t="s" r="N142" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" ht="25.5" customHeight="1">
-      <c r="K143" s="10">
-        <v>7537.21</v>
-      </c>
-      <c r="L143" s="10"/>
-      <c r="M143" s="10"/>
-      <c r="N143" s="10"/>
-    </row>
-    <row r="144" ht="17.25" customHeight="1">
-      <c t="s" r="A144" s="11">
-        <v>188</v>
-      </c>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c t="s" r="F144" s="12">
+      <c r="A143" s="6">
+        <v>140</v>
+      </c>
+      <c t="s" r="B143" s="7">
         <v>189</v>
       </c>
-      <c r="G144" s="12"/>
-      <c r="H144" s="13"/>
-      <c t="s" r="I144" s="14">
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c t="s" r="H143" s="8">
         <v>190</v>
       </c>
-      <c r="J144" s="14"/>
-      <c r="K144" s="14"/>
-      <c r="L144" s="14"/>
-      <c r="M144" s="14"/>
-      <c r="N144" s="14"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="9">
+        <v>48</v>
+      </c>
+      <c r="M143" s="9"/>
+      <c t="s" r="N143" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" ht="24.75" customHeight="1">
+      <c r="A144" s="6">
+        <v>141</v>
+      </c>
+      <c t="s" r="B144" s="7">
+        <v>191</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c t="s" r="H144" s="8">
+        <v>12</v>
+      </c>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="9">
+        <v>20</v>
+      </c>
+      <c r="M144" s="9"/>
+      <c t="s" r="N144" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" ht="25.5" customHeight="1">
+      <c r="A145" s="6">
+        <v>142</v>
+      </c>
+      <c t="s" r="B145" s="7">
+        <v>192</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c t="s" r="H145" s="8">
+        <v>168</v>
+      </c>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="9">
+        <v>30</v>
+      </c>
+      <c r="M145" s="9"/>
+      <c t="s" r="N145" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" ht="24.75" customHeight="1">
+      <c r="A146" s="6">
+        <v>143</v>
+      </c>
+      <c t="s" r="B146" s="7">
+        <v>193</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c t="s" r="H146" s="8">
+        <v>168</v>
+      </c>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="9">
+        <v>70</v>
+      </c>
+      <c r="M146" s="9"/>
+      <c t="s" r="N146" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" ht="26.25" customHeight="1">
+      <c r="K147" s="10">
+        <v>7990.21</v>
+      </c>
+      <c r="L147" s="10"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="10"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="11">
+        <v>194</v>
+      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c t="s" r="F148" s="12">
+        <v>195</v>
+      </c>
+      <c r="G148" s="12"/>
+      <c r="H148" s="13"/>
+      <c t="s" r="I148" s="14">
+        <v>196</v>
+      </c>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="428">
+  <mergeCells count="440">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5222,10 +5344,22 @@
     <mergeCell ref="B142:G142"/>
     <mergeCell ref="H142:K142"/>
     <mergeCell ref="L142:M142"/>
-    <mergeCell ref="K143:N143"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="I144:N144"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="K147:N147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="I148:N148"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
